--- a/biology/Biologie cellulaire et moléculaire/Transport_nucléo-cytoplasmique/Transport_nucléo-cytoplasmique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Transport_nucléo-cytoplasmique/Transport_nucléo-cytoplasmique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transport_nucl%C3%A9o-cytoplasmique</t>
+          <t>Transport_nucléo-cytoplasmique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le transport nucléo-cytoplasmique est le mécanisme par lequel des macromolécules sont transférées du noyau des cellules au cytoplasme et vice-versa. Ce transport s'effectue au travers des pores nucléaires qui sont des canaux à travers la double enveloppe membranaire du noyau. 
 Les petites molécules sont capables de traverser les pores nucléaires par simple diffusion passive. Les macromolécules ou les particules de plus grande taille (virus...) ne peuvent en revanche pas directement franchir les pores. Leur transport  nécessite l'intervention de facteurs protéiques additionnels. Ceux-ci sont appelés karyophérines et peuvent fonctionner comme importine (import de protéines  vers le noyau) ou comme exportine (export du noyau vers le cytoplasme). Les karyophérines sont des protéines de la super-famille de l'importine-β avec laquelle elles possèdent une des homologies de séquence significative.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transport_nucl%C3%A9o-cytoplasmique</t>
+          <t>Transport_nucléo-cytoplasmique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Import</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les protéines de poids moléculaire supérieur à 30kDa et possédant un signal de localisation nucléaire NLS (nuclear localization sequence) ont pour vocation d'être importées dans le noyau constitutivement ou en réponse à un signal. Il existe différents types de NLS avec des séquences consensus généralement faibles mais une de leurs caractéristiques est d'être constitués de plusieurs acides aminés (10 à 15) basiques (par exemple lysine et arginine). La séquence consensus des NLS est Pro-Lys-Lys-Lys-Arg-Lys-Val.
 Les séquences NLS des protéines sont reconnues par des importines qui servent de transporteur à travers le pore : elles deviennent ainsi des « protéines cargos »,
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transport_nucl%C3%A9o-cytoplasmique</t>
+          <t>Transport_nucléo-cytoplasmique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Export</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Séquence d'exportation nucléaire
 Export de l'ARN messager.
